--- a/level-2/codeforces-phase-2-div3-contests/codeforces-phase-2-div3-contests.xlsx
+++ b/level-2/codeforces-phase-2-div3-contests/codeforces-phase-2-div3-contests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52220196-3F84-48F2-81D3-AB0EA41CB0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E78F20-4E5A-4978-A88E-A867B7B0A560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Contest Link</t>
   </si>
@@ -203,6 +203,33 @@
   </si>
   <si>
     <t xml:space="preserve">Round Number </t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1472</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1475</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1490</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1506</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1512</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1520</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1538</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1547</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1551</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1153,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="4">
         <f>COUNTA(B3:B893)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1844,7 +1871,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="12">
-        <f t="shared" ref="J35:J66" si="2">SUM(E35:I35)</f>
+        <f t="shared" ref="J35:J62" si="2">SUM(E35:I35)</f>
         <v>0</v>
       </c>
     </row>
@@ -2227,112 +2254,193 @@
       </c>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="13">
+        <v>693</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="12">
+        <v>2</v>
+      </c>
       <c r="D54" s="13"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="13">
+        <v>697</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="12">
+        <v>2</v>
+      </c>
       <c r="D55" s="12"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="13">
+        <v>702</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="12">
+        <v>2</v>
+      </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="12"/>
+      <c r="J56" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="13">
+        <v>710</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="12">
+        <v>2</v>
+      </c>
       <c r="D57" s="12"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="12"/>
+      <c r="J57" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="13">
+        <v>713</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="12">
+        <v>2</v>
+      </c>
       <c r="D58" s="12"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="13">
+        <v>719</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2</v>
+      </c>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="12"/>
+      <c r="J59" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="13">
+        <v>725</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
       <c r="D60" s="12"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="12"/>
+      <c r="J60" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="13">
+        <v>731</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2</v>
+      </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
-      <c r="J61" s="12"/>
+      <c r="J61" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="13">
+        <v>734</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="12">
+        <v>2</v>
+      </c>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
@@ -4014,7 +4122,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A13:A24 B5:B24 A72:B72 A66:A69 A114:A128 A71 A70:B70 A25:B64 A129:B160 A4:B4 A73:A112 B65:B170 B3">
+  <conditionalFormatting sqref="A13:A24 B5:B24 A72:B72 A66:A69 A114:A128 A71 A70:B70 A129:B160 A4:B4 A73:A112 B65:B170 B3 A25:B64">
     <cfRule type="cellIs" dxfId="52" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/level-2/codeforces-phase-2-div3-contests/codeforces-phase-2-div3-contests.xlsx
+++ b/level-2/codeforces-phase-2-div3-contests/codeforces-phase-2-div3-contests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E78F20-4E5A-4978-A88E-A867B7B0A560}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592D1681-2BE0-4DF1-B22A-FF9FCC4C68E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="level 2 div3 contests" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Contest Link</t>
   </si>
@@ -230,6 +230,48 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1551</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1560</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1579</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1593</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1607</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1611</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1618</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1619</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1624</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1650</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1660</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1674</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1675</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1690</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1702</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1195,7 @@
       <c r="A2" s="21"/>
       <c r="B2" s="4">
         <f>COUNTA(B3:B893)</f>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1871,7 +1913,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="12">
-        <f t="shared" ref="J35:J62" si="2">SUM(E35:I35)</f>
+        <f t="shared" ref="J35:J77" si="2">SUM(E35:I35)</f>
         <v>0</v>
       </c>
     </row>
@@ -2443,172 +2485,298 @@
       </c>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="13">
+        <v>739</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="12">
+        <v>2</v>
+      </c>
       <c r="D63" s="12"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="12"/>
+      <c r="J63" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="13">
+        <v>744</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="12">
+        <v>2</v>
+      </c>
       <c r="D64" s="12"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="12"/>
+      <c r="J64" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="13">
+        <v>748</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2</v>
+      </c>
       <c r="D65" s="12"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="12"/>
+      <c r="J65" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="13">
+        <v>753</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="12">
+        <v>2</v>
+      </c>
       <c r="D66" s="13"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="12"/>
+      <c r="J66" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="13">
+        <v>756</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="12">
+        <v>2</v>
+      </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="12"/>
+      <c r="J67" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="13">
+        <v>760</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="12">
+        <v>2</v>
+      </c>
       <c r="D68" s="13"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
-      <c r="J68" s="12"/>
+      <c r="J68" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="12"/>
+      <c r="A69" s="13">
+        <v>762</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="12">
+        <v>2</v>
+      </c>
       <c r="D69" s="12"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
-      <c r="J69" s="12"/>
+      <c r="J69" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="12"/>
+      <c r="A70" s="13">
+        <v>764</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="12">
+        <v>2</v>
+      </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
-      <c r="J70" s="12"/>
+      <c r="J70" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="12"/>
+      <c r="A71" s="14">
+        <v>776</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="12">
+        <v>2</v>
+      </c>
       <c r="D71" s="12"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
-      <c r="J71" s="12"/>
+      <c r="J71" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="12"/>
+      <c r="A72" s="13">
+        <v>780</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="12">
+        <v>2</v>
+      </c>
       <c r="D72" s="12"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
-      <c r="J72" s="12"/>
+      <c r="J72" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="12"/>
+      <c r="A73" s="14">
+        <v>786</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="12">
+        <v>2</v>
+      </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
-      <c r="J73" s="12"/>
+      <c r="J73" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="13">
+        <v>787</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="12">
+        <v>2</v>
+      </c>
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
-      <c r="J74" s="12"/>
+      <c r="J74" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="12"/>
+      <c r="A75" s="14">
+        <v>797</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="12">
+        <v>2</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
-      <c r="J75" s="12"/>
+      <c r="J75" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="13">
+        <v>805</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="12">
+        <v>2</v>
+      </c>
       <c r="D76" s="12"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
-      <c r="J76" s="12"/>
+      <c r="J76" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
